--- a/hardware/permamote/rev_c/permamote_bom.xlsx
+++ b/hardware/permamote/rev_c/permamote_bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="278">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -535,27 +535,30 @@
     <t xml:space="preserve">BAT-HLD-001-THM</t>
   </si>
   <si>
+    <t xml:space="preserve">Only populate half of boards. When populating: place solder on ground pads before soldering clips, add kapton tape over CR123A PACK + hole.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT_PACKCR123A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH123A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collection of battery footprints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BH123A-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPD</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNP</t>
   </si>
   <si>
-    <t xml:space="preserve">BAT_PACKCR123A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH123A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collection of battery footprints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BH123A-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPD</t>
-  </si>
-  <si>
     <t xml:space="preserve">BQ25505</t>
   </si>
   <si>
@@ -601,19 +604,16 @@
     <t xml:space="preserve">PANASONIC</t>
   </si>
   <si>
-    <t xml:space="preserve">EVQP2</t>
+    <t xml:space="preserve">B3U-1000P</t>
   </si>
   <si>
     <t xml:space="preserve">S1</t>
   </si>
   <si>
-    <t xml:space="preserve">SWITCH TACTILE SPST-NO 0.02A 15V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11084SCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVQ-P2K02Q </t>
+    <t xml:space="preserve">SWITCH TACTILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1020CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">FT232RQ</t>
@@ -956,8 +956,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O51" activeCellId="0" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +965,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="36.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="134.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="108.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="108.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.21"/>
@@ -1909,7 +1909,7 @@
         <v>173</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1917,28 +1917,28 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>16</v>
@@ -1955,13 +1955,13 @@
         <v>17</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>19</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>23</v>
@@ -1978,7 +1978,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>26</v>
@@ -1990,7 +1990,7 @@
         <v>36</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,28 +1998,28 @@
         <v>1</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D38" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,25 +2027,25 @@
         <v>1</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,7 +2123,7 @@
         <v>211</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,9 +2385,6 @@
       </c>
       <c r="K51" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
